--- a/Water/Smart taps/smart_taps_master.xlsx
+++ b/Water/Smart taps/smart_taps_master.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>Objective</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Working video</t>
   </si>
   <si>
-    <t>Upload code</t>
-  </si>
-  <si>
     <t>Questions</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>Relay contacts(3)-Normally open(NO),Normally closed(NC),Common(COM)</t>
   </si>
   <si>
-    <t>Final code</t>
-  </si>
-  <si>
     <t>Flow meter pins(3)- Vcc, GND, data pin</t>
   </si>
   <si>
@@ -198,7 +192,16 @@
     <t>Pending</t>
   </si>
   <si>
-    <t>To check the working of this sensor upload the code attached.</t>
+    <t>To check the working of this sensor upload code001.</t>
+  </si>
+  <si>
+    <t>Code001</t>
+  </si>
+  <si>
+    <t>Code002</t>
+  </si>
+  <si>
+    <t>Upload code002</t>
   </si>
 </sst>
 </file>
@@ -630,7 +633,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -638,7 +641,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
@@ -670,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
@@ -686,12 +689,12 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -722,10 +725,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,7 +742,7 @@
         <v>357</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,7 +756,7 @@
         <v>470</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -767,42 +770,42 @@
         <v>150</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <f>490+60</f>
         <v>550</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <f>140+76</f>
         <v>216</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1">
         <f>SUM(C2:C7)</f>
@@ -826,7 +829,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -848,10 +853,10 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -859,22 +864,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -885,13 +890,13 @@
         <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="16"/>
     </row>
@@ -903,12 +908,12 @@
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="C8" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -916,12 +921,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -932,13 +937,13 @@
         <v>20</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -948,13 +953,13 @@
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C16" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -967,10 +972,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -978,7 +983,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="8"/>
@@ -988,10 +993,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -999,7 +1004,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="8"/>
@@ -1012,7 +1017,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="15"/>
@@ -1028,7 +1033,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="8"/>
@@ -1036,7 +1041,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="8"/>
@@ -1046,11 +1051,11 @@
         <v>8</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="16" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
